--- a/medicine/Soins infirmiers et profession infirmière/Résidence_Roux/Résidence_Roux.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Résidence_Roux/Résidence_Roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9sidence_Roux</t>
+          <t>Résidence_Roux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Résidence Roux est un établissement d'hébergement pour personnes âgées dépendantes implanté à Reims, en France. L'établissement est rattaché au CHU de Reims.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9sidence_Roux</t>
+          <t>Résidence_Roux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Résidence Roux est située 1 Boulevard du Docteur Roux à Reims dans la Marne en France et à proximité de l’hôpital Maison Blanche.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9sidence_Roux</t>
+          <t>Résidence_Roux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La résidence Roux pour personnes âgées est ouverte en 1966. 421 résidents quittent l’Hôpital Général (bâtiments de la place Museux) pour la Résidence Roux[1].
-Elle subit un ré-emménagement entre 2011 et 2014[2]. Le coût prévisionnel des travaux est de 24 M€ H.T.[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La résidence Roux pour personnes âgées est ouverte en 1966. 421 résidents quittent l’Hôpital Général (bâtiments de la place Museux) pour la Résidence Roux.
+Elle subit un ré-emménagement entre 2011 et 2014. Le coût prévisionnel des travaux est de 24 M€ H.T..
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9sidence_Roux</t>
+          <t>Résidence_Roux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la résidence fait référence au docteur Émile Roux, médecin, bactériologiste et immunologiste français.
 </t>
